--- a/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
+++ b/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>ROMANI LAVERDE, JORGE EDUARDO</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +395,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7DEE8"/>
         <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,7 +468,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +584,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -635,7 +668,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>344326</xdr:colOff>
+      <xdr:colOff>344325</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>174904</xdr:rowOff>
     </xdr:to>
@@ -963,17 +996,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
-    <col min="3" max="10" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
@@ -1209,7 +1243,9 @@
       <c r="C12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1230,7 +1266,9 @@
       <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1251,7 +1289,9 @@
       <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1272,7 +1312,9 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1293,7 +1335,9 @@
       <c r="C16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1314,7 +1358,9 @@
       <c r="C17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1335,7 +1381,9 @@
       <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1356,7 +1404,9 @@
       <c r="C19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1377,7 +1427,9 @@
       <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1398,7 +1450,9 @@
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1409,26 +1463,28 @@
       <c r="L21" s="25"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:13" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="11"/>
+      <c r="C22" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -1440,7 +1496,9 @@
       <c r="C23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1461,7 +1519,9 @@
       <c r="C24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1482,7 +1542,9 @@
       <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1503,7 +1565,9 @@
       <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1514,68 +1578,99 @@
       <c r="L26" s="25"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="M28" s="1"/>
+    <row r="27" spans="1:13" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>16</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="27">
-        <f>COUNTIF(C12:C26,"F")</f>
+        <f>COUNTIF(C12:C27,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="D29" s="27">
+        <f t="shared" ref="D29:F29" si="0">COUNTIF(D12:D27,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="27">
+        <f>COUNTIF(C12:C27,"F")</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="27">
+        <f t="shared" ref="D30:F30" si="1">COUNTIF(D12:D27,"F")</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
+    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -1587,43 +1682,56 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1636,22 +1744,22 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
   </mergeCells>
-  <conditionalFormatting sqref="M12:M26">
+  <conditionalFormatting sqref="M12:M27">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:J26">
+  <conditionalFormatting sqref="C12:J27">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K26">
+  <conditionalFormatting sqref="K12:K27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L26">
+  <conditionalFormatting sqref="L12:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>

--- a/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
+++ b/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -561,6 +561,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,27 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -998,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1159,50 +1159,50 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="21">
         <v>43266</v>
       </c>
@@ -1227,11 +1227,11 @@
       <c r="J11" s="21">
         <v>43294</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="41"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
@@ -1246,7 +1246,9 @@
       <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1269,7 +1271,9 @@
       <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1292,7 +1296,9 @@
       <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1315,7 +1321,9 @@
       <c r="D15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1338,7 +1346,9 @@
       <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1361,7 +1371,9 @@
       <c r="D17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1384,7 +1396,9 @@
       <c r="D18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1407,7 +1421,9 @@
       <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1430,7 +1446,9 @@
       <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1453,7 +1471,9 @@
       <c r="D21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -1463,28 +1483,30 @@
       <c r="L21" s="25"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+    <row r="22" spans="1:13" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>11</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
+      <c r="E22" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -1499,7 +1521,9 @@
       <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1522,7 +1546,9 @@
       <c r="D24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1545,7 +1571,9 @@
       <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1568,7 +1596,9 @@
       <c r="D26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1591,7 +1621,9 @@
       <c r="D27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1615,7 +1647,7 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F29" s="27">
         <f t="shared" si="0"/>
@@ -1641,7 +1673,7 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="27">
         <f t="shared" si="1"/>

--- a/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
+++ b/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-JAVA-EE-001\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\ISIL-EMP-JAVA-EE-001\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BFEAFDC-6E83-48E8-BBBA-C4EF7BD350DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miercoles" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -234,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -608,7 +609,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cancel" xfId="1"/>
+    <cellStyle name="Cancel" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -674,7 +675,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="6 Imagen"/>
+        <xdr:cNvPr id="3" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -782,6 +789,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -817,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,14 +1033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1290,9 @@
       <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1274,7 +1317,9 @@
       <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1299,7 +1344,9 @@
       <c r="E14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1324,7 +1371,9 @@
       <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1349,7 +1398,9 @@
       <c r="E16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1374,7 +1425,9 @@
       <c r="E17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1399,7 +1452,9 @@
       <c r="E18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1424,7 +1479,9 @@
       <c r="E19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1449,7 +1506,9 @@
       <c r="E20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1474,7 +1533,9 @@
       <c r="E21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1499,7 +1560,9 @@
       <c r="E22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -1524,7 +1587,9 @@
       <c r="E23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1549,7 +1614,9 @@
       <c r="E24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1574,7 +1641,9 @@
       <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1599,7 +1668,9 @@
       <c r="E26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1624,7 +1695,9 @@
       <c r="E27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1651,7 +1724,7 @@
       </c>
       <c r="F29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -1677,7 +1750,7 @@
       </c>
       <c r="F30" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>

--- a/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
+++ b/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\ISIL-EMP-JAVA-EE-001\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BFEAFDC-6E83-48E8-BBBA-C4EF7BD350DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FACC1E1-644A-49EF-835F-195137427697}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -669,7 +669,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>344325</xdr:colOff>
+      <xdr:colOff>344326</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>174904</xdr:rowOff>
     </xdr:to>
@@ -1039,16 +1039,15 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="2" customWidth="1"/>
+    <col min="3" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
@@ -1293,8 +1292,12 @@
       <c r="F12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="20"/>
@@ -1320,8 +1323,12 @@
       <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="20"/>
@@ -1347,8 +1354,12 @@
       <c r="F14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="20"/>
@@ -1374,8 +1385,12 @@
       <c r="F15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="20"/>
@@ -1401,8 +1416,12 @@
       <c r="F16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="20"/>
@@ -1428,8 +1447,12 @@
       <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="20"/>
@@ -1455,8 +1478,12 @@
       <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="20"/>
@@ -1482,8 +1509,12 @@
       <c r="F19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="20"/>
@@ -1509,8 +1540,12 @@
       <c r="F20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="20"/>
@@ -1536,8 +1571,12 @@
       <c r="F21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="20"/>
@@ -1563,8 +1602,12 @@
       <c r="F22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="37"/>
@@ -1590,8 +1633,12 @@
       <c r="F23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="20"/>
@@ -1617,8 +1664,12 @@
       <c r="F24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="20"/>
@@ -1644,8 +1695,12 @@
       <c r="F25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="20"/>
@@ -1671,8 +1726,12 @@
       <c r="F26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="20"/>
@@ -1698,8 +1757,12 @@
       <c r="F27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="20"/>
@@ -1715,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="27">
-        <f t="shared" ref="D29:F29" si="0">COUNTIF(D12:D27,"P")</f>
+        <f t="shared" ref="D29:J29" si="0">COUNTIF(D12:D27,"P")</f>
         <v>15</v>
       </c>
       <c r="E29" s="27">
@@ -1726,10 +1789,22 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="G29" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1741,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="27">
-        <f t="shared" ref="D30:F30" si="1">COUNTIF(D12:D27,"F")</f>
+        <f t="shared" ref="D30:J30" si="1">COUNTIF(D12:D27,"F")</f>
         <v>1</v>
       </c>
       <c r="E30" s="27">
@@ -1752,10 +1827,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="G30" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="1" t="s">
         <v>22</v>
       </c>

--- a/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
+++ b/Doc/Gustavo Coronel SUNARP (JUNIO - JULIO).xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\ISIL-EMP-JAVA-EE-001\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-JAVA-EE-001\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FACC1E1-644A-49EF-835F-195137427697}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Miercoles" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -235,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -609,7 +608,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cancel" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -678,7 +677,7 @@
         <xdr:cNvPr id="3" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,23 +788,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -841,23 +823,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,21 +998,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
-    <col min="3" max="10" width="13" style="2" customWidth="1"/>
+    <col min="3" max="8" width="13" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
@@ -1262,10 +1228,10 @@
         <v>43287</v>
       </c>
       <c r="I11" s="21">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="J11" s="21">
-        <v>43294</v>
+        <v>43298</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="48" t="s">
@@ -1298,7 +1264,9 @@
       <c r="H12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="20"/>
       <c r="L12" s="25"/>
@@ -1329,7 +1297,9 @@
       <c r="H13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="20"/>
       <c r="L13" s="25"/>
@@ -1360,7 +1330,9 @@
       <c r="H14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="20"/>
       <c r="L14" s="25"/>
@@ -1391,7 +1363,9 @@
       <c r="H15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="20"/>
       <c r="L15" s="25"/>
@@ -1422,7 +1396,9 @@
       <c r="H16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="20"/>
       <c r="L16" s="25"/>
@@ -1453,7 +1429,9 @@
       <c r="H17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="20"/>
       <c r="L17" s="25"/>
@@ -1484,7 +1462,9 @@
       <c r="H18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="20"/>
       <c r="L18" s="25"/>
@@ -1515,7 +1495,9 @@
       <c r="H19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
@@ -1546,7 +1528,9 @@
       <c r="H20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="20"/>
       <c r="L20" s="25"/>
@@ -1577,7 +1561,9 @@
       <c r="H21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="20"/>
       <c r="L21" s="25"/>
@@ -1608,7 +1594,9 @@
       <c r="H22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="36"/>
+      <c r="I22" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="J22" s="36"/>
       <c r="K22" s="37"/>
       <c r="L22" s="38"/>
@@ -1639,7 +1627,9 @@
       <c r="H23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="20"/>
       <c r="L23" s="25"/>
@@ -1670,7 +1660,9 @@
       <c r="H24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="20"/>
       <c r="L24" s="25"/>
@@ -1701,7 +1693,9 @@
       <c r="H25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="20"/>
       <c r="L25" s="25"/>
@@ -1732,7 +1726,9 @@
       <c r="H26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="20"/>
       <c r="L26" s="25"/>
@@ -1763,7 +1759,9 @@
       <c r="H27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="20"/>
       <c r="L27" s="25"/>
@@ -1799,7 +1797,7 @@
       </c>
       <c r="I29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
@@ -1837,7 +1835,7 @@
       </c>
       <c r="I30" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="27">
         <f t="shared" si="1"/>
